--- a/Учет контрольных/ПиОА По Z (Контрольная работа 2) DIV100.xlsx
+++ b/Учет контрольных/ПиОА По Z (Контрольная работа 2) DIV100.xlsx
@@ -481,13 +481,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -565,7 +565,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>7.000000000000001</v>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
@@ -637,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -663,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>14</v>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -845,13 +845,13 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
         <v>8</v>
@@ -877,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
         <v>13</v>
@@ -897,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -929,7 +929,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -1079,13 +1079,13 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
         <v>11</v>
@@ -1235,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
@@ -1267,7 +1267,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
         <v>14</v>
@@ -1339,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="D35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n">
         <v>14</v>
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G36" t="n">
         <v>8</v>
@@ -1391,7 +1391,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
         <v>17</v>
@@ -1469,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
         <v>11</v>
@@ -1495,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -1573,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -1599,7 +1599,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
         <v>7.000000000000001</v>
@@ -1709,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -1729,13 +1729,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -1859,7 +1859,7 @@
         <v>13</v>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -1917,7 +1917,7 @@
         <v>14</v>
       </c>
       <c r="F57" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" t="n">
         <v>13</v>
@@ -1963,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -2041,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
         <v>14</v>
@@ -2067,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
@@ -2093,7 +2093,7 @@
         <v>14</v>
       </c>
       <c r="D64" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
         <v>14</v>
@@ -2145,7 +2145,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -2177,7 +2177,7 @@
         <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67" t="n">
         <v>13</v>
@@ -2229,7 +2229,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
         <v>8</v>
@@ -2301,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E72" t="n">
         <v>14</v>
@@ -2379,7 +2379,7 @@
         <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E75" t="n">
         <v>14</v>
@@ -2405,7 +2405,7 @@
         <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" t="n">
         <v>11</v>
@@ -2431,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E77" t="n">
         <v>3</v>
@@ -2457,7 +2457,7 @@
         <v>16</v>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -2489,7 +2489,7 @@
         <v>14</v>
       </c>
       <c r="F79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" t="n">
         <v>13</v>
@@ -2561,13 +2561,13 @@
         <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -2593,7 +2593,7 @@
         <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G83" t="n">
         <v>13</v>
@@ -2613,13 +2613,13 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -2665,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
         <v>11</v>
@@ -2691,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="D87" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
         <v>15</v>
@@ -2717,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
         <v>15</v>
@@ -2801,7 +2801,7 @@
         <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G91" t="n">
         <v>14</v>
@@ -2853,7 +2853,7 @@
         <v>14</v>
       </c>
       <c r="F93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" t="n">
         <v>12</v>
@@ -2905,7 +2905,7 @@
         <v>15</v>
       </c>
       <c r="F95" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G95" t="n">
         <v>14</v>
@@ -2951,7 +2951,7 @@
         <v>14</v>
       </c>
       <c r="D97" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E97" t="n">
         <v>14</v>
@@ -2977,13 +2977,13 @@
         <v>12</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98" t="n">
         <v>12</v>
       </c>
       <c r="F98" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G98" t="n">
         <v>10</v>
@@ -3009,7 +3009,7 @@
         <v>8</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G99" t="n">
         <v>7.000000000000001</v>
@@ -3107,7 +3107,7 @@
         <v>13</v>
       </c>
       <c r="D103" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E103" t="n">
         <v>14</v>
@@ -3139,7 +3139,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G104" t="n">
         <v>13</v>
@@ -3165,7 +3165,7 @@
         <v>8</v>
       </c>
       <c r="F105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G105" t="n">
         <v>10</v>
@@ -3191,7 +3191,7 @@
         <v>15</v>
       </c>
       <c r="F106" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G106" t="n">
         <v>13</v>
@@ -3211,7 +3211,7 @@
         <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -3243,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
         <v>7.000000000000001</v>
@@ -3269,7 +3269,7 @@
         <v>13</v>
       </c>
       <c r="F109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G109" t="n">
         <v>14</v>
@@ -3315,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -3347,7 +3347,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
@@ -3503,7 +3503,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G118" t="n">
         <v>8</v>
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
@@ -3601,7 +3601,7 @@
         <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
@@ -3627,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="n">
         <v>11</v>
@@ -3705,13 +3705,13 @@
         <v>5</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -3737,7 +3737,7 @@
         <v>15</v>
       </c>
       <c r="F127" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G127" t="n">
         <v>13</v>
@@ -3757,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E128" t="n">
         <v>14</v>
@@ -3789,7 +3789,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G129" t="n">
         <v>10</v>
@@ -3815,7 +3815,7 @@
         <v>13</v>
       </c>
       <c r="F130" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G130" t="n">
         <v>14</v>
@@ -3835,13 +3835,13 @@
         <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E131" t="n">
         <v>14</v>
       </c>
       <c r="F131" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G131" t="n">
         <v>15</v>
@@ -3887,13 +3887,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G133" t="n">
         <v>10</v>
@@ -3965,13 +3965,13 @@
         <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
       </c>
       <c r="F136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -4017,7 +4017,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -4075,7 +4075,7 @@
         <v>8</v>
       </c>
       <c r="F140" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G140" t="n">
         <v>8</v>
@@ -4127,7 +4127,7 @@
         <v>14</v>
       </c>
       <c r="F142" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G142" t="n">
         <v>12</v>
@@ -4153,7 +4153,7 @@
         <v>13</v>
       </c>
       <c r="F143" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G143" t="n">
         <v>13</v>
@@ -4225,13 +4225,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E146" t="n">
         <v>6</v>
       </c>
       <c r="F146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G146" t="n">
         <v>5</v>
@@ -4251,7 +4251,7 @@
         <v>17</v>
       </c>
       <c r="D147" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147" t="n">
         <v>17</v>
@@ -4303,7 +4303,7 @@
         <v>14</v>
       </c>
       <c r="D149" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E149" t="n">
         <v>14</v>
@@ -4355,13 +4355,13 @@
         <v>4</v>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
       </c>
       <c r="F151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -4407,7 +4407,7 @@
         <v>10</v>
       </c>
       <c r="D153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -4433,13 +4433,13 @@
         <v>11</v>
       </c>
       <c r="D154" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E154" t="n">
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G154" t="n">
         <v>10</v>
@@ -4459,7 +4459,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -4517,7 +4517,7 @@
         <v>14</v>
       </c>
       <c r="F157" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G157" t="n">
         <v>13</v>
@@ -4563,13 +4563,13 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G159" t="n">
         <v>5</v>
@@ -4589,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="D160" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E160" t="n">
         <v>11</v>
@@ -4615,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
@@ -4693,7 +4693,7 @@
         <v>4</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E165" t="n">
         <v>6</v>
@@ -4745,7 +4745,7 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -4771,7 +4771,7 @@
         <v>5</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" t="n">
         <v>2</v>
@@ -4849,7 +4849,7 @@
         <v>16</v>
       </c>
       <c r="D170" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -4901,7 +4901,7 @@
         <v>9</v>
       </c>
       <c r="D172" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E172" t="n">
         <v>9</v>
@@ -4927,7 +4927,7 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -4959,7 +4959,7 @@
         <v>8</v>
       </c>
       <c r="F174" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G174" t="n">
         <v>8</v>
@@ -5011,7 +5011,7 @@
         <v>8</v>
       </c>
       <c r="F176" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G176" t="n">
         <v>9</v>
@@ -5037,7 +5037,7 @@
         <v>13</v>
       </c>
       <c r="F177" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G177" t="n">
         <v>11</v>
@@ -5063,7 +5063,7 @@
         <v>15</v>
       </c>
       <c r="F178" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G178" t="n">
         <v>13</v>
@@ -5083,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -5109,7 +5109,7 @@
         <v>11</v>
       </c>
       <c r="D180" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="n">
         <v>11</v>
@@ -5141,7 +5141,7 @@
         <v>15</v>
       </c>
       <c r="F181" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G181" t="n">
         <v>14</v>
@@ -5161,7 +5161,7 @@
         <v>5</v>
       </c>
       <c r="D182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -5193,7 +5193,7 @@
         <v>2</v>
       </c>
       <c r="F183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -5213,7 +5213,7 @@
         <v>12</v>
       </c>
       <c r="D184" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E184" t="n">
         <v>14</v>
@@ -5291,7 +5291,7 @@
         <v>17</v>
       </c>
       <c r="D187" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -5375,7 +5375,7 @@
         <v>6</v>
       </c>
       <c r="F190" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G190" t="n">
         <v>6</v>
@@ -5395,7 +5395,7 @@
         <v>13</v>
       </c>
       <c r="D191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -5421,7 +5421,7 @@
         <v>13</v>
       </c>
       <c r="D192" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -5447,7 +5447,7 @@
         <v>14</v>
       </c>
       <c r="D193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -5479,7 +5479,7 @@
         <v>15</v>
       </c>
       <c r="F194" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G194" t="n">
         <v>14</v>
@@ -5505,7 +5505,7 @@
         <v>15</v>
       </c>
       <c r="F195" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G195" t="n">
         <v>13</v>
@@ -5525,7 +5525,7 @@
         <v>2</v>
       </c>
       <c r="D196" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -5551,7 +5551,7 @@
         <v>10</v>
       </c>
       <c r="D197" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E197" t="n">
         <v>11</v>
@@ -5583,7 +5583,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G198" t="n">
         <v>15</v>
@@ -5609,7 +5609,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F199" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G199" t="n">
         <v>8</v>
@@ -5629,7 +5629,7 @@
         <v>10</v>
       </c>
       <c r="D200" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -5661,7 +5661,7 @@
         <v>15</v>
       </c>
       <c r="F201" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G201" t="n">
         <v>14</v>
@@ -5687,7 +5687,7 @@
         <v>14</v>
       </c>
       <c r="F202" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G202" t="n">
         <v>13</v>
@@ -5739,7 +5739,7 @@
         <v>15</v>
       </c>
       <c r="F204" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G204" t="n">
         <v>14</v>
@@ -5759,7 +5759,7 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -5947,7 +5947,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F212" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G212" t="n">
         <v>8</v>
@@ -5973,7 +5973,7 @@
         <v>15</v>
       </c>
       <c r="F213" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G213" t="n">
         <v>12</v>
@@ -5993,7 +5993,7 @@
         <v>8</v>
       </c>
       <c r="D214" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -6045,13 +6045,13 @@
         <v>9</v>
       </c>
       <c r="D216" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E216" t="n">
         <v>9</v>
       </c>
       <c r="F216" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G216" t="n">
         <v>10</v>
@@ -6071,7 +6071,7 @@
         <v>5</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
@@ -6123,7 +6123,7 @@
         <v>12</v>
       </c>
       <c r="D219" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E219" t="n">
         <v>12</v>
@@ -6149,7 +6149,7 @@
         <v>13</v>
       </c>
       <c r="D220" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E220" t="n">
         <v>14</v>
@@ -6175,13 +6175,13 @@
         <v>14</v>
       </c>
       <c r="D221" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="n">
         <v>12</v>
       </c>
       <c r="F221" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G221" t="n">
         <v>13</v>
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -6279,7 +6279,7 @@
         <v>5</v>
       </c>
       <c r="D225" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E225" t="n">
         <v>6</v>
@@ -6311,7 +6311,7 @@
         <v>10</v>
       </c>
       <c r="F226" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G226" t="n">
         <v>12</v>
@@ -6357,7 +6357,7 @@
         <v>13</v>
       </c>
       <c r="D228" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
@@ -6383,7 +6383,7 @@
         <v>11</v>
       </c>
       <c r="D229" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E229" t="n">
         <v>12</v>
@@ -6409,7 +6409,7 @@
         <v>8</v>
       </c>
       <c r="D230" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E230" t="n">
         <v>7.000000000000001</v>
@@ -6565,7 +6565,7 @@
         <v>9</v>
       </c>
       <c r="D236" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E236" t="n">
         <v>6</v>
@@ -6617,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E238" t="n">
         <v>2</v>
@@ -6643,13 +6643,13 @@
         <v>4</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -6669,13 +6669,13 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E240" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F240" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G240" t="n">
         <v>7.000000000000001</v>
@@ -6747,7 +6747,7 @@
         <v>5</v>
       </c>
       <c r="D243" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -6773,7 +6773,7 @@
         <v>4</v>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E244" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>13</v>
       </c>
       <c r="F245" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G245" t="n">
         <v>14</v>
@@ -6857,7 +6857,7 @@
         <v>14</v>
       </c>
       <c r="F247" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G247" t="n">
         <v>13</v>
@@ -6909,7 +6909,7 @@
         <v>15</v>
       </c>
       <c r="F249" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G249" t="n">
         <v>14</v>
@@ -6935,7 +6935,7 @@
         <v>15</v>
       </c>
       <c r="F250" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G250" t="n">
         <v>14</v>
@@ -6955,7 +6955,7 @@
         <v>16</v>
       </c>
       <c r="D251" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -6987,7 +6987,7 @@
         <v>14</v>
       </c>
       <c r="F252" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G252" t="n">
         <v>13</v>
@@ -7007,7 +7007,7 @@
         <v>12</v>
       </c>
       <c r="D253" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E253" t="n">
         <v>9</v>
@@ -7085,7 +7085,7 @@
         <v>16</v>
       </c>
       <c r="D256" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -7137,13 +7137,13 @@
         <v>12</v>
       </c>
       <c r="D258" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E258" t="n">
         <v>11</v>
       </c>
       <c r="F258" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G258" t="n">
         <v>11</v>
@@ -7163,7 +7163,7 @@
         <v>12</v>
       </c>
       <c r="D259" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E259" t="n">
         <v>11</v>
@@ -7241,7 +7241,7 @@
         <v>8</v>
       </c>
       <c r="D262" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E262" t="n">
         <v>6</v>
@@ -7267,7 +7267,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D263" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E263" t="n">
         <v>6</v>
@@ -7293,7 +7293,7 @@
         <v>11</v>
       </c>
       <c r="D264" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -7319,7 +7319,7 @@
         <v>9</v>
       </c>
       <c r="D265" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E265" t="n">
         <v>6</v>
@@ -7371,7 +7371,7 @@
         <v>11</v>
       </c>
       <c r="D267" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E267" t="n">
         <v>9</v>
@@ -7449,7 +7449,7 @@
         <v>9</v>
       </c>
       <c r="D270" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -7475,13 +7475,13 @@
         <v>10</v>
       </c>
       <c r="D271" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E271" t="n">
         <v>12</v>
       </c>
       <c r="F271" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G271" t="n">
         <v>11</v>
@@ -7533,7 +7533,7 @@
         <v>14</v>
       </c>
       <c r="F273" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G273" t="n">
         <v>13</v>
@@ -7579,13 +7579,13 @@
         <v>5</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E275" t="n">
         <v>2</v>
       </c>
       <c r="F275" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G275" t="n">
         <v>5</v>
@@ -7605,13 +7605,13 @@
         <v>12</v>
       </c>
       <c r="D276" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
       </c>
       <c r="F276" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G276" t="n">
         <v>11</v>
@@ -7637,7 +7637,7 @@
         <v>15</v>
       </c>
       <c r="F277" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G277" t="n">
         <v>14</v>
@@ -7657,7 +7657,7 @@
         <v>15</v>
       </c>
       <c r="D278" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E278" t="n">
         <v>14</v>
@@ -7689,7 +7689,7 @@
         <v>15</v>
       </c>
       <c r="F279" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G279" t="n">
         <v>13</v>
@@ -7709,7 +7709,7 @@
         <v>17</v>
       </c>
       <c r="D280" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E280" t="n">
         <v>17</v>
@@ -7741,7 +7741,7 @@
         <v>14</v>
       </c>
       <c r="F281" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G281" t="n">
         <v>13</v>
@@ -7761,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -7787,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E283" t="n">
         <v>1</v>
@@ -7819,7 +7819,7 @@
         <v>12</v>
       </c>
       <c r="F284" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G284" t="n">
         <v>13</v>
@@ -7891,7 +7891,7 @@
         <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E287" t="n">
         <v>11</v>
@@ -7917,7 +7917,7 @@
         <v>10</v>
       </c>
       <c r="D288" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E288" t="n">
         <v>6</v>
@@ -7943,7 +7943,7 @@
         <v>17</v>
       </c>
       <c r="D289" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E289" t="n">
         <v>17</v>
@@ -7969,7 +7969,7 @@
         <v>15</v>
       </c>
       <c r="D290" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E290" t="n">
         <v>14</v>
@@ -7995,7 +7995,7 @@
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
@@ -8021,7 +8021,7 @@
         <v>13</v>
       </c>
       <c r="D292" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E292" t="n">
         <v>14</v>
@@ -8047,7 +8047,7 @@
         <v>9</v>
       </c>
       <c r="D293" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E293" t="n">
         <v>11</v>
@@ -8099,7 +8099,7 @@
         <v>14</v>
       </c>
       <c r="D295" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E295" t="n">
         <v>14</v>
@@ -8125,7 +8125,7 @@
         <v>15</v>
       </c>
       <c r="D296" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E296" t="n">
         <v>14</v>
@@ -8313,7 +8313,7 @@
         <v>14</v>
       </c>
       <c r="F303" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G303" t="n">
         <v>13</v>
@@ -8339,7 +8339,7 @@
         <v>14</v>
       </c>
       <c r="F304" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G304" t="n">
         <v>15</v>
@@ -8359,7 +8359,7 @@
         <v>10</v>
       </c>
       <c r="D305" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -8437,7 +8437,7 @@
         <v>13</v>
       </c>
       <c r="D308" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E308" t="n">
         <v>14</v>
@@ -8489,7 +8489,7 @@
         <v>15</v>
       </c>
       <c r="D310" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -8515,7 +8515,7 @@
         <v>12</v>
       </c>
       <c r="D311" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -8567,7 +8567,7 @@
         <v>5</v>
       </c>
       <c r="D313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -8619,7 +8619,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D315" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -8749,7 +8749,7 @@
         <v>16</v>
       </c>
       <c r="D320" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -8775,7 +8775,7 @@
         <v>12</v>
       </c>
       <c r="D321" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -8833,7 +8833,7 @@
         <v>14</v>
       </c>
       <c r="F323" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G323" t="n">
         <v>13</v>
@@ -8853,7 +8853,7 @@
         <v>12</v>
       </c>
       <c r="D324" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E324" t="n">
         <v>11</v>
@@ -8885,7 +8885,7 @@
         <v>8</v>
       </c>
       <c r="F325" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G325" t="n">
         <v>8</v>
@@ -8957,13 +8957,13 @@
         <v>8</v>
       </c>
       <c r="D328" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
       </c>
       <c r="F328" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G328" t="n">
         <v>10</v>
@@ -8989,7 +8989,7 @@
         <v>14</v>
       </c>
       <c r="F329" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G329" t="n">
         <v>15</v>
@@ -9009,7 +9009,7 @@
         <v>8</v>
       </c>
       <c r="D330" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E330" t="n">
         <v>11</v>
@@ -9041,7 +9041,7 @@
         <v>14</v>
       </c>
       <c r="F331" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G331" t="n">
         <v>15</v>
@@ -9061,7 +9061,7 @@
         <v>13</v>
       </c>
       <c r="D332" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E332" t="n">
         <v>14</v>
@@ -9093,7 +9093,7 @@
         <v>6</v>
       </c>
       <c r="F333" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G333" t="n">
         <v>5</v>
@@ -9139,7 +9139,7 @@
         <v>9</v>
       </c>
       <c r="D335" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -9171,7 +9171,7 @@
         <v>4</v>
       </c>
       <c r="F336" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G336" t="n">
         <v>5</v>
@@ -9197,7 +9197,7 @@
         <v>5</v>
       </c>
       <c r="F337" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G337" t="n">
         <v>7.000000000000001</v>
@@ -9217,13 +9217,13 @@
         <v>13</v>
       </c>
       <c r="D338" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
       </c>
       <c r="F338" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G338" t="n">
         <v>11</v>
@@ -9243,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E339" t="n">
         <v>1</v>
@@ -9269,7 +9269,7 @@
         <v>14</v>
       </c>
       <c r="D340" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E340" t="n">
         <v>14</v>
@@ -9295,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="D341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E341" t="n">
         <v>1</v>
@@ -9321,7 +9321,7 @@
         <v>8</v>
       </c>
       <c r="D342" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -9347,7 +9347,7 @@
         <v>3</v>
       </c>
       <c r="D343" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E343" t="n">
         <v>6</v>
@@ -9399,7 +9399,7 @@
         <v>14</v>
       </c>
       <c r="D345" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -9425,7 +9425,7 @@
         <v>15</v>
       </c>
       <c r="D346" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -9451,7 +9451,7 @@
         <v>8</v>
       </c>
       <c r="D347" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E347" t="n">
         <v>11</v>
@@ -9483,7 +9483,7 @@
         <v>14</v>
       </c>
       <c r="F348" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G348" t="n">
         <v>13</v>
@@ -9529,7 +9529,7 @@
         <v>10</v>
       </c>
       <c r="D350" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E350" t="n">
         <v>11</v>
@@ -9633,7 +9633,7 @@
         <v>15</v>
       </c>
       <c r="D354" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E354" t="n">
         <v>14</v>
@@ -9659,7 +9659,7 @@
         <v>5</v>
       </c>
       <c r="D355" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E355" t="n">
         <v>6</v>
@@ -9717,7 +9717,7 @@
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G357" t="n">
         <v>10</v>
@@ -9737,7 +9737,7 @@
         <v>12</v>
       </c>
       <c r="D358" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -9763,13 +9763,13 @@
         <v>12</v>
       </c>
       <c r="D359" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
       </c>
       <c r="F359" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G359" t="n">
         <v>13</v>
@@ -9815,7 +9815,7 @@
         <v>14</v>
       </c>
       <c r="D361" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E361" t="n">
         <v>14</v>
@@ -9893,7 +9893,7 @@
         <v>12</v>
       </c>
       <c r="D364" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E364" t="n">
         <v>11</v>
@@ -9919,13 +9919,13 @@
         <v>8</v>
       </c>
       <c r="D365" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
       </c>
       <c r="F365" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G365" t="n">
         <v>8</v>
@@ -9945,13 +9945,13 @@
         <v>5</v>
       </c>
       <c r="D366" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
       </c>
       <c r="F366" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G366" t="n">
         <v>5</v>
@@ -10003,7 +10003,7 @@
         <v>9</v>
       </c>
       <c r="F368" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G368" t="n">
         <v>9</v>
@@ -10023,7 +10023,7 @@
         <v>8</v>
       </c>
       <c r="D369" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -10049,7 +10049,7 @@
         <v>12</v>
       </c>
       <c r="D370" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
@@ -10101,7 +10101,7 @@
         <v>12</v>
       </c>
       <c r="D372" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E372" t="n">
         <v>11</v>
@@ -10231,7 +10231,7 @@
         <v>4</v>
       </c>
       <c r="D377" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E377" t="n">
         <v>3</v>
@@ -10257,7 +10257,7 @@
         <v>13</v>
       </c>
       <c r="D378" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10309,7 +10309,7 @@
         <v>12</v>
       </c>
       <c r="D380" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E380" t="n">
         <v>11</v>
@@ -10335,7 +10335,7 @@
         <v>12</v>
       </c>
       <c r="D381" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E381" t="n">
         <v>14</v>
@@ -10439,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="D385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E385" t="n">
         <v>1</v>
@@ -10465,13 +10465,13 @@
         <v>14</v>
       </c>
       <c r="D386" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E386" t="n">
         <v>12</v>
       </c>
       <c r="F386" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G386" t="n">
         <v>13</v>
@@ -10517,7 +10517,7 @@
         <v>11</v>
       </c>
       <c r="D388" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E388" t="n">
         <v>11</v>
@@ -10549,7 +10549,7 @@
         <v>10</v>
       </c>
       <c r="F389" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G389" t="n">
         <v>10</v>
@@ -10595,7 +10595,7 @@
         <v>11</v>
       </c>
       <c r="D391" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E391" t="n">
         <v>8</v>
@@ -10627,7 +10627,7 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G392" t="n">
         <v>9</v>
@@ -10647,7 +10647,7 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E393" t="n">
         <v>6</v>
@@ -10725,7 +10725,7 @@
         <v>12</v>
       </c>
       <c r="D396" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E396" t="n">
         <v>11</v>
@@ -10751,7 +10751,7 @@
         <v>9</v>
       </c>
       <c r="D397" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E397" t="n">
         <v>6</v>
@@ -10803,7 +10803,7 @@
         <v>11</v>
       </c>
       <c r="D399" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E399" t="n">
         <v>11</v>
@@ -10829,13 +10829,13 @@
         <v>11</v>
       </c>
       <c r="D400" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
       </c>
       <c r="F400" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G400" t="n">
         <v>11</v>
@@ -10887,7 +10887,7 @@
         <v>8</v>
       </c>
       <c r="F402" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G402" t="n">
         <v>9</v>
@@ -10959,13 +10959,13 @@
         <v>5</v>
       </c>
       <c r="D405" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E405" t="n">
         <v>2</v>
       </c>
       <c r="F405" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G405" t="n">
         <v>5</v>
@@ -10991,7 +10991,7 @@
         <v>10</v>
       </c>
       <c r="F406" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G406" t="n">
         <v>11</v>
@@ -11011,7 +11011,7 @@
         <v>11</v>
       </c>
       <c r="D407" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E407" t="n">
         <v>12</v>
@@ -11089,7 +11089,7 @@
         <v>15</v>
       </c>
       <c r="D410" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E410" t="n">
         <v>14</v>
@@ -11147,7 +11147,7 @@
         <v>8</v>
       </c>
       <c r="F412" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G412" t="n">
         <v>8</v>
@@ -11173,7 +11173,7 @@
         <v>8</v>
       </c>
       <c r="F413" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G413" t="n">
         <v>8</v>
@@ -11271,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="D417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E417" t="n">
         <v>1</v>
@@ -11329,7 +11329,7 @@
         <v>8</v>
       </c>
       <c r="F419" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G419" t="n">
         <v>8</v>
@@ -11427,7 +11427,7 @@
         <v>11</v>
       </c>
       <c r="D423" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -11459,7 +11459,7 @@
         <v>14</v>
       </c>
       <c r="F424" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G424" t="n">
         <v>12</v>
@@ -11479,7 +11479,7 @@
         <v>12</v>
       </c>
       <c r="D425" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E425" t="n">
         <v>14</v>
@@ -11531,7 +11531,7 @@
         <v>14</v>
       </c>
       <c r="D427" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E427" t="n">
         <v>14</v>
@@ -11609,13 +11609,13 @@
         <v>8</v>
       </c>
       <c r="D430" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
       </c>
       <c r="F430" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G430" t="n">
         <v>4</v>
@@ -11687,7 +11687,7 @@
         <v>10</v>
       </c>
       <c r="D433" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E433" t="n">
         <v>11</v>
@@ -11713,7 +11713,7 @@
         <v>14</v>
       </c>
       <c r="D434" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E434" t="n">
         <v>12</v>
@@ -11765,7 +11765,7 @@
         <v>12</v>
       </c>
       <c r="D436" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E436" t="n">
         <v>14</v>
@@ -11797,7 +11797,7 @@
         <v>10</v>
       </c>
       <c r="F437" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G437" t="n">
         <v>9</v>
@@ -11823,7 +11823,7 @@
         <v>10</v>
       </c>
       <c r="F438" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G438" t="n">
         <v>12</v>
@@ -11869,13 +11869,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D440" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E440" t="n">
         <v>6</v>
       </c>
       <c r="F440" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G440" t="n">
         <v>6</v>
@@ -11921,13 +11921,13 @@
         <v>8</v>
       </c>
       <c r="D442" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E442" t="n">
         <v>9</v>
       </c>
       <c r="F442" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G442" t="n">
         <v>9</v>
@@ -11947,7 +11947,7 @@
         <v>2</v>
       </c>
       <c r="D443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E443" t="n">
         <v>1</v>
@@ -11979,7 +11979,7 @@
         <v>15</v>
       </c>
       <c r="F444" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G444" t="n">
         <v>14</v>
@@ -12031,7 +12031,7 @@
         <v>15</v>
       </c>
       <c r="F446" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G446" t="n">
         <v>14</v>
@@ -12129,7 +12129,7 @@
         <v>1</v>
       </c>
       <c r="D450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E450" t="n">
         <v>1</v>
@@ -12239,7 +12239,7 @@
         <v>14</v>
       </c>
       <c r="F454" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G454" t="n">
         <v>13</v>
@@ -12291,7 +12291,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F456" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G456" t="n">
         <v>7.000000000000001</v>
@@ -12311,7 +12311,7 @@
         <v>11</v>
       </c>
       <c r="D457" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E457" t="n">
         <v>11</v>
@@ -12343,7 +12343,7 @@
         <v>14</v>
       </c>
       <c r="F458" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G458" t="n">
         <v>13</v>
@@ -12389,13 +12389,13 @@
         <v>8</v>
       </c>
       <c r="D460" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E460" t="n">
         <v>8</v>
       </c>
       <c r="F460" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G460" t="n">
         <v>7.000000000000001</v>
@@ -12421,7 +12421,7 @@
         <v>15</v>
       </c>
       <c r="F461" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G461" t="n">
         <v>13</v>
@@ -12447,7 +12447,7 @@
         <v>2</v>
       </c>
       <c r="F462" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G462" t="n">
         <v>4</v>
@@ -12467,7 +12467,7 @@
         <v>5</v>
       </c>
       <c r="D463" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -12519,13 +12519,13 @@
         <v>11</v>
       </c>
       <c r="D465" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E465" t="n">
         <v>12</v>
       </c>
       <c r="F465" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G465" t="n">
         <v>11</v>
@@ -12571,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="D467" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E467" t="n">
         <v>6</v>
@@ -12597,13 +12597,13 @@
         <v>2</v>
       </c>
       <c r="D468" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
       </c>
       <c r="F468" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -12655,7 +12655,7 @@
         <v>15</v>
       </c>
       <c r="F470" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G470" t="n">
         <v>12</v>
@@ -12675,7 +12675,7 @@
         <v>9</v>
       </c>
       <c r="D471" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E471" t="n">
         <v>7.000000000000001</v>
@@ -12707,7 +12707,7 @@
         <v>9</v>
       </c>
       <c r="F472" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G472" t="n">
         <v>10</v>
@@ -12733,7 +12733,7 @@
         <v>13</v>
       </c>
       <c r="F473" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G473" t="n">
         <v>13</v>
@@ -12805,7 +12805,7 @@
         <v>10</v>
       </c>
       <c r="D476" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E476" t="n">
         <v>11</v>
@@ -12831,7 +12831,7 @@
         <v>15</v>
       </c>
       <c r="D477" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E477" t="n">
         <v>14</v>
@@ -12883,13 +12883,13 @@
         <v>10</v>
       </c>
       <c r="D479" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
       </c>
       <c r="F479" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G479" t="n">
         <v>10</v>
@@ -12909,7 +12909,7 @@
         <v>13</v>
       </c>
       <c r="D480" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E480" t="n">
         <v>14</v>
@@ -12935,13 +12935,13 @@
         <v>11</v>
       </c>
       <c r="D481" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E481" t="n">
         <v>9</v>
       </c>
       <c r="F481" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G481" t="n">
         <v>10</v>
@@ -12987,13 +12987,13 @@
         <v>10</v>
       </c>
       <c r="D483" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
       </c>
       <c r="F483" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G483" t="n">
         <v>12</v>
@@ -13039,7 +13039,7 @@
         <v>12</v>
       </c>
       <c r="D485" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E485" t="n">
         <v>15</v>
@@ -13071,7 +13071,7 @@
         <v>16</v>
       </c>
       <c r="F486" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G486" t="n">
         <v>14</v>
@@ -13097,7 +13097,7 @@
         <v>8</v>
       </c>
       <c r="F487" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G487" t="n">
         <v>7.000000000000001</v>
@@ -13169,7 +13169,7 @@
         <v>1</v>
       </c>
       <c r="D490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E490" t="n">
         <v>1</v>
@@ -13195,7 +13195,7 @@
         <v>6</v>
       </c>
       <c r="D491" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -13221,13 +13221,13 @@
         <v>5</v>
       </c>
       <c r="D492" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E492" t="n">
         <v>11</v>
       </c>
       <c r="F492" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G492" t="n">
         <v>9</v>
@@ -13253,7 +13253,7 @@
         <v>8</v>
       </c>
       <c r="F493" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G493" t="n">
         <v>8</v>
@@ -13325,7 +13325,7 @@
         <v>13</v>
       </c>
       <c r="D496" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E496" t="n">
         <v>15</v>
@@ -13377,13 +13377,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D498" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E498" t="n">
         <v>6</v>
       </c>
       <c r="F498" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G498" t="n">
         <v>7.000000000000001</v>
@@ -13409,7 +13409,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F499" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G499" t="n">
         <v>8</v>
@@ -13435,7 +13435,7 @@
         <v>14</v>
       </c>
       <c r="F500" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G500" t="n">
         <v>13</v>
@@ -13507,7 +13507,7 @@
         <v>2</v>
       </c>
       <c r="D503" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E503" t="n">
         <v>9</v>
@@ -13533,7 +13533,7 @@
         <v>6</v>
       </c>
       <c r="D504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E504" t="n">
         <v>2</v>
@@ -13559,7 +13559,7 @@
         <v>6</v>
       </c>
       <c r="D505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E505" t="n">
         <v>2</v>
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="D506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E506" t="n">
         <v>1</v>
@@ -13637,13 +13637,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D508" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E508" t="n">
         <v>6</v>
       </c>
       <c r="F508" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G508" t="n">
         <v>4</v>
@@ -13663,7 +13663,7 @@
         <v>5</v>
       </c>
       <c r="D509" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E509" t="n">
         <v>9</v>
@@ -13741,7 +13741,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D512" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E512" t="n">
         <v>11</v>
@@ -13793,7 +13793,7 @@
         <v>8</v>
       </c>
       <c r="D514" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -13851,7 +13851,7 @@
         <v>14</v>
       </c>
       <c r="F516" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G516" t="n">
         <v>13</v>
@@ -13923,7 +13923,7 @@
         <v>10</v>
       </c>
       <c r="D519" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -13975,13 +13975,13 @@
         <v>8</v>
       </c>
       <c r="D521" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E521" t="n">
         <v>6</v>
       </c>
       <c r="F521" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G521" t="n">
         <v>7.000000000000001</v>
@@ -14007,7 +14007,7 @@
         <v>15</v>
       </c>
       <c r="F522" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G522" t="n">
         <v>14</v>
@@ -14053,7 +14053,7 @@
         <v>11</v>
       </c>
       <c r="D524" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E524" t="n">
         <v>6</v>
@@ -14105,7 +14105,7 @@
         <v>15</v>
       </c>
       <c r="D526" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E526" t="n">
         <v>17</v>
@@ -14131,7 +14131,7 @@
         <v>5</v>
       </c>
       <c r="D527" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E527" t="n">
         <v>6</v>
@@ -14163,7 +14163,7 @@
         <v>14</v>
       </c>
       <c r="F528" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G528" t="n">
         <v>13</v>
@@ -14189,7 +14189,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F529" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G529" t="n">
         <v>8</v>
@@ -14215,7 +14215,7 @@
         <v>5</v>
       </c>
       <c r="F530" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G530" t="n">
         <v>7.000000000000001</v>
@@ -14235,7 +14235,7 @@
         <v>11</v>
       </c>
       <c r="D531" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E531" t="n">
         <v>8</v>
@@ -14261,7 +14261,7 @@
         <v>11</v>
       </c>
       <c r="D532" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E532" t="n">
         <v>11</v>
@@ -14287,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="D533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E533" t="n">
         <v>1</v>
@@ -14313,7 +14313,7 @@
         <v>13</v>
       </c>
       <c r="D534" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -14345,7 +14345,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F535" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G535" t="n">
         <v>10</v>
@@ -14365,7 +14365,7 @@
         <v>4</v>
       </c>
       <c r="D536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E536" t="n">
         <v>1</v>
@@ -14417,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="D538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E538" t="n">
         <v>1</v>
@@ -14495,7 +14495,7 @@
         <v>12</v>
       </c>
       <c r="D541" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E541" t="n">
         <v>15</v>
@@ -14527,7 +14527,7 @@
         <v>14</v>
       </c>
       <c r="F542" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G542" t="n">
         <v>12</v>
@@ -14573,7 +14573,7 @@
         <v>15</v>
       </c>
       <c r="D544" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E544" t="n">
         <v>16</v>
@@ -14651,7 +14651,7 @@
         <v>15</v>
       </c>
       <c r="D547" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E547" t="n">
         <v>16</v>
@@ -14677,7 +14677,7 @@
         <v>16</v>
       </c>
       <c r="D548" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E548" t="n">
         <v>16</v>
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="D551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E551" t="n">
         <v>1</v>
@@ -14781,13 +14781,13 @@
         <v>10</v>
       </c>
       <c r="D552" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E552" t="n">
         <v>9</v>
       </c>
       <c r="F552" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G552" t="n">
         <v>9</v>
@@ -14833,7 +14833,7 @@
         <v>10</v>
       </c>
       <c r="D554" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E554" t="n">
         <v>11</v>
@@ -14885,7 +14885,7 @@
         <v>16</v>
       </c>
       <c r="D556" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E556" t="n">
         <v>16</v>
@@ -14943,7 +14943,7 @@
         <v>8</v>
       </c>
       <c r="F558" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G558" t="n">
         <v>8</v>
@@ -14963,7 +14963,7 @@
         <v>14</v>
       </c>
       <c r="D559" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E559" t="n">
         <v>14</v>
@@ -15015,13 +15015,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D561" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E561" t="n">
         <v>6</v>
       </c>
       <c r="F561" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G561" t="n">
         <v>6</v>
@@ -15041,13 +15041,13 @@
         <v>4</v>
       </c>
       <c r="D562" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E562" t="n">
         <v>6</v>
       </c>
       <c r="F562" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G562" t="n">
         <v>6</v>
@@ -15073,7 +15073,7 @@
         <v>14</v>
       </c>
       <c r="F563" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G563" t="n">
         <v>12</v>
@@ -15093,7 +15093,7 @@
         <v>15</v>
       </c>
       <c r="D564" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E564" t="n">
         <v>16</v>
@@ -15119,7 +15119,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D565" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E565" t="n">
         <v>9</v>
@@ -15177,7 +15177,7 @@
         <v>14</v>
       </c>
       <c r="F567" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G567" t="n">
         <v>12</v>
@@ -15255,7 +15255,7 @@
         <v>15</v>
       </c>
       <c r="F570" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G570" t="n">
         <v>15</v>
@@ -15333,7 +15333,7 @@
         <v>3</v>
       </c>
       <c r="F573" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G573" t="n">
         <v>6</v>
@@ -15405,7 +15405,7 @@
         <v>9</v>
       </c>
       <c r="D576" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E576" t="n">
         <v>11</v>
@@ -15431,7 +15431,7 @@
         <v>6</v>
       </c>
       <c r="D577" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E577" t="n">
         <v>11</v>
@@ -15463,7 +15463,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F578" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G578" t="n">
         <v>7.000000000000001</v>
@@ -15509,7 +15509,7 @@
         <v>4</v>
       </c>
       <c r="D580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E580" t="n">
         <v>1</v>
@@ -15593,7 +15593,7 @@
         <v>14</v>
       </c>
       <c r="F583" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G583" t="n">
         <v>13</v>
@@ -15639,7 +15639,7 @@
         <v>1</v>
       </c>
       <c r="D585" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E585" t="n">
         <v>1</v>
@@ -15749,7 +15749,7 @@
         <v>14</v>
       </c>
       <c r="F589" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G589" t="n">
         <v>14</v>
@@ -15847,7 +15847,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E593" t="n">
         <v>2</v>
@@ -15873,7 +15873,7 @@
         <v>11</v>
       </c>
       <c r="D594" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E594" t="n">
         <v>9</v>
@@ -15899,7 +15899,7 @@
         <v>9</v>
       </c>
       <c r="D595" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E595" t="n">
         <v>6</v>
@@ -15951,7 +15951,7 @@
         <v>12</v>
       </c>
       <c r="D597" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E597" t="n">
         <v>11</v>
@@ -15977,7 +15977,7 @@
         <v>11</v>
       </c>
       <c r="D598" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E598" t="n">
         <v>8</v>
@@ -16003,13 +16003,13 @@
         <v>13</v>
       </c>
       <c r="D599" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E599" t="n">
         <v>11</v>
       </c>
       <c r="F599" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G599" t="n">
         <v>12</v>
@@ -16029,7 +16029,7 @@
         <v>13</v>
       </c>
       <c r="D600" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E600" t="n">
         <v>16</v>
@@ -16081,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="D602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E602" t="n">
         <v>1</v>
@@ -16133,7 +16133,7 @@
         <v>15</v>
       </c>
       <c r="D604" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E604" t="n">
         <v>16</v>
@@ -16159,7 +16159,7 @@
         <v>14</v>
       </c>
       <c r="D605" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E605" t="n">
         <v>15</v>
@@ -16263,7 +16263,7 @@
         <v>16</v>
       </c>
       <c r="D609" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E609" t="n">
         <v>16</v>
@@ -16289,7 +16289,7 @@
         <v>4</v>
       </c>
       <c r="D610" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E610" t="n">
         <v>10</v>
@@ -16315,7 +16315,7 @@
         <v>1</v>
       </c>
       <c r="D611" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E611" t="n">
         <v>1</v>
@@ -16347,7 +16347,7 @@
         <v>14</v>
       </c>
       <c r="F612" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G612" t="n">
         <v>11</v>
@@ -16419,13 +16419,13 @@
         <v>8</v>
       </c>
       <c r="D615" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E615" t="n">
         <v>8</v>
       </c>
       <c r="F615" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G615" t="n">
         <v>10</v>
@@ -16679,7 +16679,7 @@
         <v>3</v>
       </c>
       <c r="D625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E625" t="n">
         <v>1</v>
@@ -16731,7 +16731,7 @@
         <v>5</v>
       </c>
       <c r="D627" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E627" t="n">
         <v>14</v>
@@ -16783,7 +16783,7 @@
         <v>12</v>
       </c>
       <c r="D629" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E629" t="n">
         <v>9</v>
@@ -16815,7 +16815,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F630" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G630" t="n">
         <v>9</v>
@@ -16835,7 +16835,7 @@
         <v>8</v>
       </c>
       <c r="D631" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E631" t="n">
         <v>3</v>
@@ -16887,7 +16887,7 @@
         <v>14</v>
       </c>
       <c r="D633" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E633" t="n">
         <v>14</v>
@@ -16913,7 +16913,7 @@
         <v>12</v>
       </c>
       <c r="D634" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E634" t="n">
         <v>9</v>
@@ -16939,13 +16939,13 @@
         <v>10</v>
       </c>
       <c r="D635" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E635" t="n">
         <v>8</v>
       </c>
       <c r="F635" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G635" t="n">
         <v>7.000000000000001</v>
@@ -16997,7 +16997,7 @@
         <v>15</v>
       </c>
       <c r="F637" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G637" t="n">
         <v>13</v>
@@ -17043,13 +17043,13 @@
         <v>10</v>
       </c>
       <c r="D639" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E639" t="n">
         <v>14</v>
       </c>
       <c r="F639" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G639" t="n">
         <v>12</v>
@@ -17075,7 +17075,7 @@
         <v>16</v>
       </c>
       <c r="F640" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G640" t="n">
         <v>15</v>
@@ -17095,7 +17095,7 @@
         <v>9</v>
       </c>
       <c r="D641" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E641" t="n">
         <v>7.000000000000001</v>
@@ -17199,7 +17199,7 @@
         <v>14</v>
       </c>
       <c r="D645" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E645" t="n">
         <v>16</v>
@@ -17225,7 +17225,7 @@
         <v>12</v>
       </c>
       <c r="D646" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E646" t="n">
         <v>8</v>
@@ -17335,7 +17335,7 @@
         <v>15</v>
       </c>
       <c r="F650" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G650" t="n">
         <v>15</v>
@@ -17407,7 +17407,7 @@
         <v>4</v>
       </c>
       <c r="D653" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E653" t="n">
         <v>2</v>
@@ -17433,7 +17433,7 @@
         <v>10</v>
       </c>
       <c r="D654" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E654" t="n">
         <v>14</v>
@@ -17459,7 +17459,7 @@
         <v>15</v>
       </c>
       <c r="D655" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E655" t="n">
         <v>16</v>
@@ -17485,7 +17485,7 @@
         <v>11</v>
       </c>
       <c r="D656" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E656" t="n">
         <v>12</v>
@@ -17563,7 +17563,7 @@
         <v>11</v>
       </c>
       <c r="D659" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E659" t="n">
         <v>8</v>
@@ -17595,7 +17595,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F660" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G660" t="n">
         <v>6</v>
@@ -17615,7 +17615,7 @@
         <v>14</v>
       </c>
       <c r="D661" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -17641,7 +17641,7 @@
         <v>10</v>
       </c>
       <c r="D662" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E662" t="n">
         <v>14</v>
@@ -17693,7 +17693,7 @@
         <v>6</v>
       </c>
       <c r="D664" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E664" t="n">
         <v>12</v>
@@ -17719,13 +17719,13 @@
         <v>10</v>
       </c>
       <c r="D665" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E665" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F665" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G665" t="n">
         <v>8</v>
@@ -17751,7 +17751,7 @@
         <v>14</v>
       </c>
       <c r="F666" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G666" t="n">
         <v>12</v>
@@ -17771,7 +17771,7 @@
         <v>10</v>
       </c>
       <c r="D667" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E667" t="n">
         <v>11</v>
@@ -17803,7 +17803,7 @@
         <v>15</v>
       </c>
       <c r="F668" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G668" t="n">
         <v>13</v>
@@ -17849,7 +17849,7 @@
         <v>4</v>
       </c>
       <c r="D670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E670" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         <v>13</v>
       </c>
       <c r="D672" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E672" t="n">
         <v>14</v>
@@ -18005,13 +18005,13 @@
         <v>9</v>
       </c>
       <c r="D676" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E676" t="n">
         <v>14</v>
       </c>
       <c r="F676" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G676" t="n">
         <v>11</v>
@@ -18031,13 +18031,13 @@
         <v>5</v>
       </c>
       <c r="D677" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E677" t="n">
         <v>2</v>
       </c>
       <c r="F677" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G677" t="n">
         <v>4</v>
@@ -18089,7 +18089,7 @@
         <v>8</v>
       </c>
       <c r="F679" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G679" t="n">
         <v>8</v>
@@ -18135,7 +18135,7 @@
         <v>10</v>
       </c>
       <c r="D681" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E681" t="n">
         <v>10</v>
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="D685" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E685" t="n">
         <v>1</v>
@@ -18265,7 +18265,7 @@
         <v>1</v>
       </c>
       <c r="D686" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E686" t="n">
         <v>1</v>
@@ -18297,7 +18297,7 @@
         <v>14</v>
       </c>
       <c r="F687" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G687" t="n">
         <v>14</v>
@@ -18317,7 +18317,7 @@
         <v>14</v>
       </c>
       <c r="D688" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -18349,7 +18349,7 @@
         <v>8</v>
       </c>
       <c r="F689" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G689" t="n">
         <v>9</v>
@@ -18369,7 +18369,7 @@
         <v>12</v>
       </c>
       <c r="D690" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E690" t="n">
         <v>11</v>
@@ -18421,7 +18421,7 @@
         <v>16</v>
       </c>
       <c r="D692" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E692" t="n">
         <v>16</v>
@@ -18479,7 +18479,7 @@
         <v>14</v>
       </c>
       <c r="F694" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G694" t="n">
         <v>13</v>
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="D696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E696" t="n">
         <v>1</v>
@@ -18551,7 +18551,7 @@
         <v>6</v>
       </c>
       <c r="D697" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E697" t="n">
         <v>2</v>
@@ -18603,7 +18603,7 @@
         <v>10</v>
       </c>
       <c r="D699" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E699" t="n">
         <v>6</v>
@@ -18629,7 +18629,7 @@
         <v>14</v>
       </c>
       <c r="D700" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E700" t="n">
         <v>14</v>
@@ -18655,13 +18655,13 @@
         <v>15</v>
       </c>
       <c r="D701" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E701" t="n">
         <v>14</v>
       </c>
       <c r="F701" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G701" t="n">
         <v>14</v>
@@ -18681,7 +18681,7 @@
         <v>9</v>
       </c>
       <c r="D702" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E702" t="n">
         <v>10</v>
@@ -18707,7 +18707,7 @@
         <v>4</v>
       </c>
       <c r="D703" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -18739,7 +18739,7 @@
         <v>14</v>
       </c>
       <c r="F704" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G704" t="n">
         <v>13</v>
@@ -18759,13 +18759,13 @@
         <v>12</v>
       </c>
       <c r="D705" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
       </c>
       <c r="F705" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G705" t="n">
         <v>12</v>
@@ -18889,7 +18889,7 @@
         <v>6</v>
       </c>
       <c r="D710" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E710" t="n">
         <v>8</v>
@@ -18921,7 +18921,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F711" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G711" t="n">
         <v>9</v>
@@ -18967,7 +18967,7 @@
         <v>13</v>
       </c>
       <c r="D713" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E713" t="n">
         <v>14</v>
@@ -19019,7 +19019,7 @@
         <v>2</v>
       </c>
       <c r="D715" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E715" t="n">
         <v>9</v>
@@ -19045,7 +19045,7 @@
         <v>13</v>
       </c>
       <c r="D716" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E716" t="n">
         <v>14</v>
@@ -19071,13 +19071,13 @@
         <v>9</v>
       </c>
       <c r="D717" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E717" t="n">
         <v>14</v>
       </c>
       <c r="F717" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G717" t="n">
         <v>12</v>
@@ -19097,7 +19097,7 @@
         <v>12</v>
       </c>
       <c r="D718" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E718" t="n">
         <v>10</v>
@@ -19123,13 +19123,13 @@
         <v>10</v>
       </c>
       <c r="D719" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
       </c>
       <c r="F719" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G719" t="n">
         <v>9</v>
@@ -19149,7 +19149,7 @@
         <v>4</v>
       </c>
       <c r="D720" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E720" t="n">
         <v>1</v>
@@ -19175,7 +19175,7 @@
         <v>5</v>
       </c>
       <c r="D721" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E721" t="n">
         <v>1</v>
@@ -19207,7 +19207,7 @@
         <v>14</v>
       </c>
       <c r="F722" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G722" t="n">
         <v>12</v>
@@ -19227,7 +19227,7 @@
         <v>1</v>
       </c>
       <c r="D723" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E723" t="n">
         <v>1</v>
@@ -19285,7 +19285,7 @@
         <v>8</v>
       </c>
       <c r="F725" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G725" t="n">
         <v>8</v>
@@ -19305,7 +19305,7 @@
         <v>12</v>
       </c>
       <c r="D726" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E726" t="n">
         <v>14</v>
@@ -19331,7 +19331,7 @@
         <v>13</v>
       </c>
       <c r="D727" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E727" t="n">
         <v>15</v>
@@ -19363,7 +19363,7 @@
         <v>15</v>
       </c>
       <c r="F728" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G728" t="n">
         <v>14</v>
@@ -19383,7 +19383,7 @@
         <v>16</v>
       </c>
       <c r="D729" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E729" t="n">
         <v>17</v>
@@ -19435,7 +19435,7 @@
         <v>9</v>
       </c>
       <c r="D731" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E731" t="n">
         <v>10</v>
@@ -19461,7 +19461,7 @@
         <v>1</v>
       </c>
       <c r="D732" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E732" t="n">
         <v>1</v>
@@ -19519,7 +19519,7 @@
         <v>14</v>
       </c>
       <c r="F734" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G734" t="n">
         <v>14</v>
@@ -19539,13 +19539,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D735" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E735" t="n">
         <v>2</v>
       </c>
       <c r="F735" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G735" t="n">
         <v>4</v>
@@ -19565,7 +19565,7 @@
         <v>8</v>
       </c>
       <c r="D736" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E736" t="n">
         <v>11</v>
@@ -19597,7 +19597,7 @@
         <v>3</v>
       </c>
       <c r="F737" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G737" t="n">
         <v>5</v>
@@ -19617,7 +19617,7 @@
         <v>1</v>
       </c>
       <c r="D738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E738" t="n">
         <v>1</v>
@@ -19649,7 +19649,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F739" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G739" t="n">
         <v>7.000000000000001</v>
@@ -19695,7 +19695,7 @@
         <v>9</v>
       </c>
       <c r="D741" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E741" t="n">
         <v>9</v>
@@ -19747,7 +19747,7 @@
         <v>9</v>
       </c>
       <c r="D743" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E743" t="n">
         <v>15</v>
@@ -19773,7 +19773,7 @@
         <v>14</v>
       </c>
       <c r="D744" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E744" t="n">
         <v>14</v>
@@ -19825,7 +19825,7 @@
         <v>1</v>
       </c>
       <c r="D746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E746" t="n">
         <v>1</v>
@@ -19903,7 +19903,7 @@
         <v>3</v>
       </c>
       <c r="D749" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E749" t="n">
         <v>11</v>
@@ -19935,7 +19935,7 @@
         <v>15</v>
       </c>
       <c r="F750" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G750" t="n">
         <v>13</v>
@@ -19981,7 +19981,7 @@
         <v>12</v>
       </c>
       <c r="D752" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E752" t="n">
         <v>10</v>
@@ -20033,7 +20033,7 @@
         <v>16</v>
       </c>
       <c r="D754" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E754" t="n">
         <v>17</v>
@@ -20111,7 +20111,7 @@
         <v>3</v>
       </c>
       <c r="D757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E757" t="n">
         <v>1</v>
@@ -20137,13 +20137,13 @@
         <v>12</v>
       </c>
       <c r="D758" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
       </c>
       <c r="F758" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G758" t="n">
         <v>10</v>
@@ -20267,7 +20267,7 @@
         <v>11</v>
       </c>
       <c r="D763" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E763" t="n">
         <v>10</v>
@@ -20293,7 +20293,7 @@
         <v>12</v>
       </c>
       <c r="D764" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E764" t="n">
         <v>10</v>
@@ -20319,7 +20319,7 @@
         <v>12</v>
       </c>
       <c r="D765" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E765" t="n">
         <v>10</v>
@@ -20403,7 +20403,7 @@
         <v>14</v>
       </c>
       <c r="F768" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G768" t="n">
         <v>13</v>
@@ -20501,7 +20501,7 @@
         <v>12</v>
       </c>
       <c r="D772" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E772" t="n">
         <v>11</v>
@@ -20527,7 +20527,7 @@
         <v>9</v>
       </c>
       <c r="D773" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -20553,7 +20553,7 @@
         <v>6</v>
       </c>
       <c r="D774" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E774" t="n">
         <v>11</v>
@@ -20579,7 +20579,7 @@
         <v>1</v>
       </c>
       <c r="D775" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E775" t="n">
         <v>1</v>
@@ -20631,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="D777" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E777" t="n">
         <v>1</v>
@@ -20657,7 +20657,7 @@
         <v>1</v>
       </c>
       <c r="D778" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E778" t="n">
         <v>1</v>
@@ -20683,7 +20683,7 @@
         <v>8</v>
       </c>
       <c r="D779" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E779" t="n">
         <v>3</v>
@@ -20715,7 +20715,7 @@
         <v>9</v>
       </c>
       <c r="F780" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G780" t="n">
         <v>8</v>
@@ -20735,7 +20735,7 @@
         <v>6</v>
       </c>
       <c r="D781" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -20767,7 +20767,7 @@
         <v>9</v>
       </c>
       <c r="F782" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G782" t="n">
         <v>8</v>
@@ -20839,7 +20839,7 @@
         <v>11</v>
       </c>
       <c r="D785" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E785" t="n">
         <v>11</v>
@@ -20969,13 +20969,13 @@
         <v>3</v>
       </c>
       <c r="D790" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E790" t="n">
         <v>6</v>
       </c>
       <c r="F790" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G790" t="n">
         <v>4</v>
@@ -21001,7 +21001,7 @@
         <v>2</v>
       </c>
       <c r="F791" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G791" t="n">
         <v>1</v>
@@ -21053,7 +21053,7 @@
         <v>14</v>
       </c>
       <c r="F793" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G793" t="n">
         <v>13</v>
@@ -21131,7 +21131,7 @@
         <v>14</v>
       </c>
       <c r="F796" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G796" t="n">
         <v>13</v>
@@ -21151,7 +21151,7 @@
         <v>10</v>
       </c>
       <c r="D797" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E797" t="n">
         <v>11</v>
@@ -21203,7 +21203,7 @@
         <v>13</v>
       </c>
       <c r="D799" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E799" t="n">
         <v>11</v>
@@ -21229,7 +21229,7 @@
         <v>14</v>
       </c>
       <c r="D800" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E800" t="n">
         <v>15</v>
@@ -21261,7 +21261,7 @@
         <v>4</v>
       </c>
       <c r="F801" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G801" t="n">
         <v>1</v>
@@ -21307,7 +21307,7 @@
         <v>16</v>
       </c>
       <c r="D803" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E803" t="n">
         <v>16</v>
@@ -21333,7 +21333,7 @@
         <v>9</v>
       </c>
       <c r="D804" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E804" t="n">
         <v>8</v>
@@ -21437,7 +21437,7 @@
         <v>10</v>
       </c>
       <c r="D808" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E808" t="n">
         <v>8</v>
@@ -21547,7 +21547,7 @@
         <v>14</v>
       </c>
       <c r="F812" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G812" t="n">
         <v>13</v>
@@ -21671,7 +21671,7 @@
         <v>11</v>
       </c>
       <c r="D817" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -21697,7 +21697,7 @@
         <v>10</v>
       </c>
       <c r="D818" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E818" t="n">
         <v>5</v>
@@ -21749,13 +21749,13 @@
         <v>8</v>
       </c>
       <c r="D820" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E820" t="n">
         <v>10</v>
       </c>
       <c r="F820" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G820" t="n">
         <v>9</v>
@@ -21781,7 +21781,7 @@
         <v>15</v>
       </c>
       <c r="F821" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G821" t="n">
         <v>13</v>
@@ -21853,7 +21853,7 @@
         <v>1</v>
       </c>
       <c r="D824" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E824" t="n">
         <v>1</v>
@@ -21885,7 +21885,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F825" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G825" t="n">
         <v>7.000000000000001</v>
@@ -21905,7 +21905,7 @@
         <v>1</v>
       </c>
       <c r="D826" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E826" t="n">
         <v>1</v>
@@ -21931,7 +21931,7 @@
         <v>10</v>
       </c>
       <c r="D827" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E827" t="n">
         <v>14</v>
@@ -21983,7 +21983,7 @@
         <v>12</v>
       </c>
       <c r="D829" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -22041,7 +22041,7 @@
         <v>12</v>
       </c>
       <c r="F831" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G831" t="n">
         <v>12</v>
@@ -22087,13 +22087,13 @@
         <v>10</v>
       </c>
       <c r="D833" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E833" t="n">
         <v>10</v>
       </c>
       <c r="F833" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G833" t="n">
         <v>10</v>
@@ -22113,7 +22113,7 @@
         <v>8</v>
       </c>
       <c r="D834" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E834" t="n">
         <v>6</v>
@@ -22197,7 +22197,7 @@
         <v>8</v>
       </c>
       <c r="F837" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G837" t="n">
         <v>9</v>
@@ -22269,7 +22269,7 @@
         <v>1</v>
       </c>
       <c r="D840" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E840" t="n">
         <v>1</v>
@@ -22295,13 +22295,13 @@
         <v>5</v>
       </c>
       <c r="D841" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E841" t="n">
         <v>3</v>
       </c>
       <c r="F841" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G841" t="n">
         <v>6</v>
@@ -22327,7 +22327,7 @@
         <v>15</v>
       </c>
       <c r="F842" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G842" t="n">
         <v>13</v>
@@ -22347,7 +22347,7 @@
         <v>8</v>
       </c>
       <c r="D843" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -22399,7 +22399,7 @@
         <v>8</v>
       </c>
       <c r="D845" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -22425,7 +22425,7 @@
         <v>3</v>
       </c>
       <c r="D846" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E846" t="n">
         <v>4</v>
@@ -22451,7 +22451,7 @@
         <v>10</v>
       </c>
       <c r="D847" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -22477,7 +22477,7 @@
         <v>15</v>
       </c>
       <c r="D848" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E848" t="n">
         <v>15</v>
@@ -22529,7 +22529,7 @@
         <v>11</v>
       </c>
       <c r="D850" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -22555,7 +22555,7 @@
         <v>10</v>
       </c>
       <c r="D851" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -22581,7 +22581,7 @@
         <v>1</v>
       </c>
       <c r="D852" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E852" t="n">
         <v>1</v>
@@ -22613,7 +22613,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F853" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G853" t="n">
         <v>9</v>
@@ -22633,7 +22633,7 @@
         <v>1</v>
       </c>
       <c r="D854" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E854" t="n">
         <v>1</v>
@@ -22691,7 +22691,7 @@
         <v>14</v>
       </c>
       <c r="F856" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G856" t="n">
         <v>13</v>
@@ -22711,13 +22711,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D857" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E857" t="n">
         <v>4</v>
       </c>
       <c r="F857" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G857" t="n">
         <v>6</v>
@@ -22743,7 +22743,7 @@
         <v>10</v>
       </c>
       <c r="F858" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G858" t="n">
         <v>10</v>
@@ -22789,13 +22789,13 @@
         <v>5</v>
       </c>
       <c r="D860" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E860" t="n">
         <v>2</v>
       </c>
       <c r="F860" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G860" t="n">
         <v>4</v>
@@ -22815,7 +22815,7 @@
         <v>5</v>
       </c>
       <c r="D861" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E861" t="n">
         <v>1</v>
@@ -22841,7 +22841,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D862" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E862" t="n">
         <v>11</v>
@@ -22873,7 +22873,7 @@
         <v>14</v>
       </c>
       <c r="F863" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G863" t="n">
         <v>11</v>
@@ -22925,7 +22925,7 @@
         <v>3</v>
       </c>
       <c r="F865" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G865" t="n">
         <v>4</v>
@@ -23023,7 +23023,7 @@
         <v>6</v>
       </c>
       <c r="D869" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E869" t="n">
         <v>2</v>
@@ -23075,7 +23075,7 @@
         <v>13</v>
       </c>
       <c r="D871" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E871" t="n">
         <v>16</v>
@@ -23107,7 +23107,7 @@
         <v>15</v>
       </c>
       <c r="F872" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G872" t="n">
         <v>14</v>
@@ -23185,7 +23185,7 @@
         <v>8</v>
       </c>
       <c r="F875" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G875" t="n">
         <v>9</v>
@@ -23231,13 +23231,13 @@
         <v>9</v>
       </c>
       <c r="D877" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
       </c>
       <c r="F877" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G877" t="n">
         <v>10</v>
@@ -23257,13 +23257,13 @@
         <v>10</v>
       </c>
       <c r="D878" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
       </c>
       <c r="F878" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G878" t="n">
         <v>10</v>
@@ -23335,7 +23335,7 @@
         <v>11</v>
       </c>
       <c r="D881" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E881" t="n">
         <v>10</v>
@@ -23361,7 +23361,7 @@
         <v>2</v>
       </c>
       <c r="D882" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E882" t="n">
         <v>1</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="D883" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E883" t="n">
         <v>1</v>
@@ -23439,7 +23439,7 @@
         <v>8</v>
       </c>
       <c r="D885" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -23497,7 +23497,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F887" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G887" t="n">
         <v>8</v>
@@ -23517,7 +23517,7 @@
         <v>13</v>
       </c>
       <c r="D888" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E888" t="n">
         <v>14</v>
@@ -23621,13 +23621,13 @@
         <v>13</v>
       </c>
       <c r="D892" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E892" t="n">
         <v>15</v>
       </c>
       <c r="F892" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G892" t="n">
         <v>13</v>
@@ -23647,7 +23647,7 @@
         <v>14</v>
       </c>
       <c r="D893" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -23673,7 +23673,7 @@
         <v>10</v>
       </c>
       <c r="D894" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -23699,7 +23699,7 @@
         <v>3</v>
       </c>
       <c r="D895" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E895" t="n">
         <v>1</v>
@@ -23731,7 +23731,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F896" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G896" t="n">
         <v>8</v>
@@ -23751,13 +23751,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D897" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
       </c>
       <c r="F897" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G897" t="n">
         <v>5</v>
@@ -23783,7 +23783,7 @@
         <v>14</v>
       </c>
       <c r="F898" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G898" t="n">
         <v>14</v>
@@ -23829,7 +23829,7 @@
         <v>14</v>
       </c>
       <c r="D900" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E900" t="n">
         <v>14</v>
@@ -23887,7 +23887,7 @@
         <v>14</v>
       </c>
       <c r="F902" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G902" t="n">
         <v>14</v>
@@ -23985,13 +23985,13 @@
         <v>2</v>
       </c>
       <c r="D906" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E906" t="n">
         <v>1</v>
       </c>
       <c r="F906" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G906" t="n">
         <v>3</v>
@@ -24011,7 +24011,7 @@
         <v>15</v>
       </c>
       <c r="D907" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E907" t="n">
         <v>14</v>
@@ -24043,7 +24043,7 @@
         <v>14</v>
       </c>
       <c r="F908" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G908" t="n">
         <v>13</v>
@@ -24063,7 +24063,7 @@
         <v>8</v>
       </c>
       <c r="D909" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E909" t="n">
         <v>10</v>
@@ -24095,7 +24095,7 @@
         <v>16</v>
       </c>
       <c r="F910" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G910" t="n">
         <v>13</v>
@@ -24219,7 +24219,7 @@
         <v>9</v>
       </c>
       <c r="D915" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E915" t="n">
         <v>11</v>
@@ -24251,7 +24251,7 @@
         <v>14</v>
       </c>
       <c r="F916" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G916" t="n">
         <v>14</v>
@@ -24297,7 +24297,7 @@
         <v>5</v>
       </c>
       <c r="D918" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -24485,7 +24485,7 @@
         <v>15</v>
       </c>
       <c r="F925" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G925" t="n">
         <v>14</v>
@@ -24557,7 +24557,7 @@
         <v>11</v>
       </c>
       <c r="D928" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E928" t="n">
         <v>11</v>
@@ -24609,7 +24609,7 @@
         <v>11</v>
       </c>
       <c r="D930" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E930" t="n">
         <v>9</v>
@@ -24635,7 +24635,7 @@
         <v>17</v>
       </c>
       <c r="D931" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E931" t="n">
         <v>16</v>
@@ -24713,7 +24713,7 @@
         <v>12</v>
       </c>
       <c r="D934" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -24739,7 +24739,7 @@
         <v>1</v>
       </c>
       <c r="D935" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E935" t="n">
         <v>1</v>
@@ -24771,7 +24771,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F936" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G936" t="n">
         <v>9</v>
@@ -24823,7 +24823,7 @@
         <v>15</v>
       </c>
       <c r="F938" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G938" t="n">
         <v>14</v>
@@ -24843,7 +24843,7 @@
         <v>8</v>
       </c>
       <c r="D939" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E939" t="n">
         <v>3</v>
@@ -24869,7 +24869,7 @@
         <v>11</v>
       </c>
       <c r="D940" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E940" t="n">
         <v>11</v>
@@ -24901,7 +24901,7 @@
         <v>14</v>
       </c>
       <c r="F941" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G941" t="n">
         <v>13</v>
@@ -24947,13 +24947,13 @@
         <v>14</v>
       </c>
       <c r="D943" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E943" t="n">
         <v>14</v>
       </c>
       <c r="F943" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G943" t="n">
         <v>15</v>
@@ -24973,7 +24973,7 @@
         <v>1</v>
       </c>
       <c r="D944" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E944" t="n">
         <v>1</v>
@@ -24999,7 +24999,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D945" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E945" t="n">
         <v>4</v>
@@ -25025,7 +25025,7 @@
         <v>12</v>
       </c>
       <c r="D946" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E946" t="n">
         <v>14</v>
@@ -25051,13 +25051,13 @@
         <v>5</v>
       </c>
       <c r="D947" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E947" t="n">
         <v>8</v>
       </c>
       <c r="F947" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G947" t="n">
         <v>9</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="D948" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E948" t="n">
         <v>1</v>
@@ -25103,7 +25103,7 @@
         <v>1</v>
       </c>
       <c r="D949" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E949" t="n">
         <v>1</v>
@@ -25155,7 +25155,7 @@
         <v>13</v>
       </c>
       <c r="D951" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E951" t="n">
         <v>11</v>
@@ -25187,7 +25187,7 @@
         <v>8</v>
       </c>
       <c r="F952" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G952" t="n">
         <v>9</v>
@@ -25213,7 +25213,7 @@
         <v>15</v>
       </c>
       <c r="F953" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G953" t="n">
         <v>14</v>
@@ -25239,7 +25239,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F954" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G954" t="n">
         <v>8</v>
@@ -25317,7 +25317,7 @@
         <v>14</v>
       </c>
       <c r="F957" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G957" t="n">
         <v>13</v>
@@ -25343,7 +25343,7 @@
         <v>8</v>
       </c>
       <c r="F958" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G958" t="n">
         <v>9</v>
@@ -25441,7 +25441,7 @@
         <v>4</v>
       </c>
       <c r="D962" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E962" t="n">
         <v>7.000000000000001</v>
